--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.8655748915799</v>
+        <v>166.4772956371487</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.2688794287663</v>
+        <v>227.7815803505813</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.8776039184231</v>
+        <v>206.0424260154433</v>
       </c>
       <c r="AD2" t="n">
-        <v>117865.5748915799</v>
+        <v>166477.2956371487</v>
       </c>
       <c r="AE2" t="n">
-        <v>161268.8794287663</v>
+        <v>227781.5803505813</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544271098710869e-06</v>
+        <v>4.707567659500777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145877.6039184231</v>
+        <v>206042.4260154433</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.48845841861798</v>
+        <v>126.9899194050804</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.8103008773416</v>
+        <v>173.7532101298017</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.9940195304893</v>
+        <v>157.1704476192238</v>
       </c>
       <c r="AD3" t="n">
-        <v>90488.45841861799</v>
+        <v>126989.9194050804</v>
       </c>
       <c r="AE3" t="n">
-        <v>123810.3008773416</v>
+        <v>173753.2101298016</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.107244939831283e-06</v>
+        <v>5.749216660248463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>111994.0195304893</v>
+        <v>157170.4476192238</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.94761720794214</v>
+        <v>125.4490781944045</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.7020539557793</v>
+        <v>171.6449632082394</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.0869807361771</v>
+        <v>155.2634088249117</v>
       </c>
       <c r="AD4" t="n">
-        <v>88947.61720794214</v>
+        <v>125449.0781944045</v>
       </c>
       <c r="AE4" t="n">
-        <v>121702.0539557793</v>
+        <v>171644.9632082394</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.156518864065505e-06</v>
+        <v>5.840386320706125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>110086.9807361771</v>
+        <v>155263.4088249117</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.4773580012335</v>
+        <v>138.5979021987925</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.5822863160743</v>
+        <v>189.6357642962087</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.0698716220932</v>
+        <v>171.5371931072988</v>
       </c>
       <c r="AD2" t="n">
-        <v>103477.3580012335</v>
+        <v>138597.9021987925</v>
       </c>
       <c r="AE2" t="n">
-        <v>141582.2863160743</v>
+        <v>189635.7642962087</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.964678687952196e-06</v>
+        <v>5.651135125209953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.299479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128069.8716220933</v>
+        <v>171537.1931072988</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.56614396272005</v>
+        <v>118.7719395062997</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.3388848478264</v>
+        <v>162.50900748061</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.4265421536121</v>
+        <v>146.9993758895299</v>
       </c>
       <c r="AD3" t="n">
-        <v>83566.14396272005</v>
+        <v>118771.9395062997</v>
       </c>
       <c r="AE3" t="n">
-        <v>114338.8848478264</v>
+        <v>162509.00748061</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.339383514344675e-06</v>
+        <v>6.365380353408651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>103426.5421536121</v>
+        <v>146999.3758895299</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.11599828236091</v>
+        <v>103.4209849013615</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.67229038319077</v>
+        <v>141.5051541538239</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.25514547647292</v>
+        <v>128.0001008451523</v>
       </c>
       <c r="AD2" t="n">
-        <v>72115.9982823609</v>
+        <v>103420.9849013615</v>
       </c>
       <c r="AE2" t="n">
-        <v>98672.29038319078</v>
+        <v>141505.1541538239</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.650391404442738e-06</v>
+        <v>7.77437837332126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>89255.14547647291</v>
+        <v>128000.1008451523</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.18467583647138</v>
+        <v>109.0147231205004</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.2392345101073</v>
+        <v>149.1587535635593</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.29078826917349</v>
+        <v>134.9232514691193</v>
       </c>
       <c r="AD2" t="n">
-        <v>76184.67583647139</v>
+        <v>109014.7231205004</v>
       </c>
       <c r="AE2" t="n">
-        <v>104239.2345101073</v>
+        <v>149158.7535635593</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567944709651892e-06</v>
+        <v>7.244161312048641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.700520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94290.78826917348</v>
+        <v>134923.2514691193</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.34635884309857</v>
+        <v>109.1764061271275</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.4604563327254</v>
+        <v>149.3799753861774</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.49089699152771</v>
+        <v>135.1233601914735</v>
       </c>
       <c r="AD3" t="n">
-        <v>76346.35884309857</v>
+        <v>109176.4061271275</v>
       </c>
       <c r="AE3" t="n">
-        <v>104460.4563327254</v>
+        <v>149379.9753861774</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.566423901541232e-06</v>
+        <v>7.241073545792485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>94490.89699152771</v>
+        <v>135123.3601914735</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.14705962731047</v>
+        <v>99.20118366371891</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.61005753502347</v>
+        <v>135.7314359359924</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.5806064299538</v>
+        <v>122.7774181905644</v>
       </c>
       <c r="AD2" t="n">
-        <v>69147.05962731047</v>
+        <v>99201.18366371891</v>
       </c>
       <c r="AE2" t="n">
-        <v>94610.05753502347</v>
+        <v>135731.4359359924</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646451765941255e-06</v>
+        <v>8.119935843056569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85580.6064299538</v>
+        <v>122777.4181905644</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.4628077105156</v>
+        <v>141.9239064926985</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.6671103170578</v>
+        <v>194.1865501040822</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.7648457535107</v>
+        <v>175.6536583047383</v>
       </c>
       <c r="AD2" t="n">
-        <v>106462.8077105156</v>
+        <v>141923.9064926985</v>
       </c>
       <c r="AE2" t="n">
-        <v>145667.1103170578</v>
+        <v>194186.5501040822</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.865995293111897e-06</v>
+        <v>5.418919774660008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.436197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>131764.8457535107</v>
+        <v>175653.6583047383</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.14930843692132</v>
+        <v>120.6956585651247</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.5050403257147</v>
+        <v>165.1411247653883</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.3859627929098</v>
+        <v>149.3802875948496</v>
       </c>
       <c r="AD3" t="n">
-        <v>85149.30843692132</v>
+        <v>120695.6585651247</v>
       </c>
       <c r="AE3" t="n">
-        <v>116505.0403257147</v>
+        <v>165141.1247653883</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.284762556733717e-06</v>
+        <v>6.210709702324743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105385.9627929098</v>
+        <v>149380.2875948497</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.25722290603925</v>
+        <v>120.8035730342427</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.6526936632122</v>
+        <v>165.2887781028857</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.5195243031093</v>
+        <v>149.5138491050492</v>
       </c>
       <c r="AD4" t="n">
-        <v>85257.22290603924</v>
+        <v>120803.5730342427</v>
       </c>
       <c r="AE4" t="n">
-        <v>116652.6936632122</v>
+        <v>165288.7781028858</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.284642908944111e-06</v>
+        <v>6.210483476631124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>105519.5243031093</v>
+        <v>149513.8491050492</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.77302743886406</v>
+        <v>97.3722949170124</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4124872456271</v>
+        <v>133.2290696678728</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.2566288137953</v>
+        <v>120.5138742469802</v>
       </c>
       <c r="AD2" t="n">
-        <v>77773.02743886407</v>
+        <v>97372.29491701239</v>
       </c>
       <c r="AE2" t="n">
-        <v>106412.4872456271</v>
+        <v>133229.0696678728</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567961168932113e-06</v>
+        <v>8.17978913470664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96256.62881379531</v>
+        <v>120513.8742469802</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.97648650095985</v>
+        <v>118.7671573428246</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.3192630143093</v>
+        <v>162.5024643135692</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.7863368600018</v>
+        <v>146.9934571931681</v>
       </c>
       <c r="AD2" t="n">
-        <v>95976.48650095986</v>
+        <v>118767.1573428246</v>
       </c>
       <c r="AE2" t="n">
-        <v>131319.2630143093</v>
+        <v>162502.4643135692</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.217839144743253e-06</v>
+        <v>6.306920253371591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118786.3368600018</v>
+        <v>146993.4571931681</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.16505262614801</v>
+        <v>114.2655837715469</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.6853616355708</v>
+        <v>156.3432127579404</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.21714466547186</v>
+        <v>141.4220359614427</v>
       </c>
       <c r="AD3" t="n">
-        <v>80165.05262614801</v>
+        <v>114265.5837715469</v>
       </c>
       <c r="AE3" t="n">
-        <v>109685.3616355708</v>
+        <v>156343.2127579404</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.449605761200488e-06</v>
+        <v>6.761179618628386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99217.14466547186</v>
+        <v>141422.0359614427</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9693582844522</v>
+        <v>124.2612023250121</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.1507304584374</v>
+        <v>170.0196590383527</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.9658186392892</v>
+        <v>153.7932214038698</v>
       </c>
       <c r="AD2" t="n">
-        <v>100969.3582844522</v>
+        <v>124261.2023250121</v>
       </c>
       <c r="AE2" t="n">
-        <v>138150.7304584374</v>
+        <v>170019.6590383527</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051120990520745e-06</v>
+        <v>5.86639972970373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124965.8186392892</v>
+        <v>153793.2214038697</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.63187530393209</v>
+        <v>117.4841662473737</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.060577251849</v>
+        <v>160.7470192952018</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.2702344404785</v>
+        <v>145.4055493835706</v>
       </c>
       <c r="AD3" t="n">
-        <v>82631.87530393209</v>
+        <v>117484.1662473737</v>
       </c>
       <c r="AE3" t="n">
-        <v>113060.577251849</v>
+        <v>160747.0192952018</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.370712324759919e-06</v>
+        <v>6.480878972782307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>102270.2344404785</v>
+        <v>145405.5493835706</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.2708000857783</v>
+        <v>150.5493664038865</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.3503499491994</v>
+        <v>205.9882848829986</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.428491989185</v>
+        <v>186.3290520801974</v>
       </c>
       <c r="AD2" t="n">
-        <v>114270.8000857783</v>
+        <v>150549.3664038865</v>
       </c>
       <c r="AE2" t="n">
-        <v>156350.3499491994</v>
+        <v>205988.2848829986</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636770779692074e-06</v>
+        <v>4.912103972931164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141428.491989185</v>
+        <v>186329.0520801974</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.97239182916643</v>
+        <v>126.165617292703</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.1041958024032</v>
+        <v>172.6253636140048</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.3553041328781</v>
+        <v>156.1502411919517</v>
       </c>
       <c r="AD3" t="n">
-        <v>89972.39182916643</v>
+        <v>126165.617292703</v>
       </c>
       <c r="AE3" t="n">
-        <v>123104.1958024032</v>
+        <v>172625.3636140048</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.112414874689397e-06</v>
+        <v>5.798192846007363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>111355.3041328781</v>
+        <v>156150.2411919517</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.30016756939395</v>
+        <v>123.4933930329305</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.4479406799703</v>
+        <v>168.9691084915719</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.0479968677427</v>
+        <v>152.8429339268163</v>
       </c>
       <c r="AD4" t="n">
-        <v>87300.16756939395</v>
+        <v>123493.3930329305</v>
       </c>
       <c r="AE4" t="n">
-        <v>119447.9406799703</v>
+        <v>168969.1084915719</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.216667891356054e-06</v>
+        <v>5.992408308838815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>108047.9968677427</v>
+        <v>152842.9339268163</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.85727044715047</v>
+        <v>111.1333800599055</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5277522461037</v>
+        <v>152.0575934565995</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.36089308440191</v>
+        <v>137.545430151316</v>
       </c>
       <c r="AD2" t="n">
-        <v>77857.27044715047</v>
+        <v>111133.3800599055</v>
       </c>
       <c r="AE2" t="n">
-        <v>106527.7522461037</v>
+        <v>152057.5934565995</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.505625504897077e-06</v>
+        <v>7.027017052061788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>96360.89308440191</v>
+        <v>137545.430151316</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.73210661333749</v>
+        <v>111.0082162260926</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.3564975668422</v>
+        <v>151.886338777338</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.20598271137165</v>
+        <v>137.3905197782857</v>
       </c>
       <c r="AD3" t="n">
-        <v>77732.1066133375</v>
+        <v>111008.2162260926</v>
       </c>
       <c r="AE3" t="n">
-        <v>106356.4975668422</v>
+        <v>151886.338777338</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.51909056855357e-06</v>
+        <v>7.054007736545656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>96205.98271137165</v>
+        <v>137390.5197782857</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.22772443487682</v>
+        <v>105.0781306009209</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.1934031509586</v>
+        <v>143.7725340080685</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.63108537658067</v>
+        <v>130.0510851483961</v>
       </c>
       <c r="AD2" t="n">
-        <v>73227.72443487681</v>
+        <v>105078.1306009209</v>
       </c>
       <c r="AE2" t="n">
-        <v>100193.4031509586</v>
+        <v>143772.5340080685</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.644169607980438e-06</v>
+        <v>7.623830718671323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>90631.08537658067</v>
+        <v>130051.0851483961</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.75418924914655</v>
+        <v>101.4650040032565</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.80900318517342</v>
+        <v>138.8288947972509</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.56968779349374</v>
+        <v>125.5792599254162</v>
       </c>
       <c r="AD2" t="n">
-        <v>70754.18924914656</v>
+        <v>101465.0040032565</v>
       </c>
       <c r="AE2" t="n">
-        <v>96809.00318517342</v>
+        <v>138828.8947972509</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646245021294966e-06</v>
+        <v>7.926410777853779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87569.68779349374</v>
+        <v>125579.2599254162</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.17128729273394</v>
+        <v>104.7084193158553</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.2209157139049</v>
+        <v>143.2666787173312</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.27421779317001</v>
+        <v>129.5935079766343</v>
       </c>
       <c r="AD2" t="n">
-        <v>76171.28729273393</v>
+        <v>104708.4193158553</v>
       </c>
       <c r="AE2" t="n">
-        <v>104220.9157139049</v>
+        <v>143266.6787173312</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.412400533619734e-06</v>
+        <v>8.116486679555038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.618489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94274.21779317001</v>
+        <v>129593.5079766343</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.123050291699</v>
+        <v>123.1696524025568</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.9927745262794</v>
+        <v>168.5261522786663</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9183763960946</v>
+        <v>152.4422528331774</v>
       </c>
       <c r="AD2" t="n">
-        <v>100123.050291699</v>
+        <v>123169.6524025569</v>
       </c>
       <c r="AE2" t="n">
-        <v>136992.7745262794</v>
+        <v>168526.1522786663</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.0628201563172e-06</v>
+        <v>5.943642010520029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>123918.3763960946</v>
+        <v>152442.2528331774</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.2897042886885</v>
+        <v>115.7741323375771</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2241596563875</v>
+        <v>158.4072754584476</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6090819628989</v>
+        <v>143.2891074147444</v>
       </c>
       <c r="AD3" t="n">
-        <v>81289.7042886885</v>
+        <v>115774.1323375771</v>
       </c>
       <c r="AE3" t="n">
-        <v>111224.1596563875</v>
+        <v>158407.2754584476</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.417212929693399e-06</v>
+        <v>6.631368898995335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>100609.0819628989</v>
+        <v>143289.1074147444</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0132206291956</v>
+        <v>145.9737127415685</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.5249419055566</v>
+        <v>199.7276736786255</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1590527132142</v>
+        <v>180.6659448223448</v>
       </c>
       <c r="AD2" t="n">
-        <v>110013.2206291956</v>
+        <v>145973.7127415685</v>
       </c>
       <c r="AE2" t="n">
-        <v>150524.9419055566</v>
+        <v>199727.6736786255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.759481671235332e-06</v>
+        <v>5.177869964648017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136159.0527132142</v>
+        <v>180665.9448223448</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.5795770135318</v>
+        <v>122.4547282713331</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.4619968912285</v>
+        <v>167.5479615420998</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.1561501704173</v>
+        <v>151.5574192476091</v>
       </c>
       <c r="AD3" t="n">
-        <v>86579.5770135318</v>
+        <v>122454.7282713331</v>
       </c>
       <c r="AE3" t="n">
-        <v>118461.9968912285</v>
+        <v>167547.9615420997</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.226745708277648e-06</v>
+        <v>6.054640572759534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.78515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>107156.1501704173</v>
+        <v>151557.4192476091</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.19847655658604</v>
+        <v>122.0736278143874</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.94055843307</v>
+        <v>167.0265230839412</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.6844770668619</v>
+        <v>151.0857461440537</v>
       </c>
       <c r="AD4" t="n">
-        <v>86198.47655658604</v>
+        <v>122073.6278143873</v>
       </c>
       <c r="AE4" t="n">
-        <v>117940.55843307</v>
+        <v>167026.5230839413</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.255665024948778e-06</v>
+        <v>6.108904553836298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>106684.4770668619</v>
+        <v>151085.7461440537</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.89584626156979</v>
+        <v>111.291173805249</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.7899980785513</v>
+        <v>152.2734938203471</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8346017707381</v>
+        <v>137.7407252873656</v>
       </c>
       <c r="AD2" t="n">
-        <v>83895.84626156979</v>
+        <v>111291.173805249</v>
       </c>
       <c r="AE2" t="n">
-        <v>114789.9980785513</v>
+        <v>152273.4938203471</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.061630201821584e-06</v>
+        <v>7.656904789073632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>103834.6017707381</v>
+        <v>137740.7252873656</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.77353699556126</v>
+        <v>107.130037064018</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3084520929231</v>
+        <v>146.5800429546008</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.54427701601459</v>
+        <v>132.5906493814358</v>
       </c>
       <c r="AD2" t="n">
-        <v>74773.53699556126</v>
+        <v>107130.037064018</v>
       </c>
       <c r="AE2" t="n">
-        <v>102308.4520929231</v>
+        <v>146580.0429546008</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606886376189287e-06</v>
+        <v>7.427601449801982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92544.27701601459</v>
+        <v>132590.6493814358</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.83951141835315</v>
+        <v>114.5380925501018</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.6081859100873</v>
+        <v>156.7160712909977</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.0518958864208</v>
+        <v>141.7593093994154</v>
       </c>
       <c r="AD2" t="n">
-        <v>80839.51141835316</v>
+        <v>114538.0925501017</v>
       </c>
       <c r="AE2" t="n">
-        <v>110608.1859100873</v>
+        <v>156716.0712909978</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.373947794809603e-06</v>
+        <v>6.684411765061493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100051.8958864208</v>
+        <v>141759.3093994154</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.05392950074121</v>
+        <v>112.7525106324898</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.1650739560973</v>
+        <v>154.2729593370077</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.84195110838965</v>
+        <v>139.5493646213843</v>
       </c>
       <c r="AD3" t="n">
-        <v>79053.9295007412</v>
+        <v>112752.5106324898</v>
       </c>
       <c r="AE3" t="n">
-        <v>108165.0739560973</v>
+        <v>154272.9593370077</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476532430608337e-06</v>
+        <v>6.887650815618972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97841.95110838965</v>
+        <v>139549.3646213842</v>
       </c>
     </row>
   </sheetData>
